--- a/fake_db/fake_db.xlsx
+++ b/fake_db/fake_db.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohamedmahgoub/Documents/Lab/dev/flask/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohamedmahgoub/Documents/github/ngs-db/fake_db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600203C5-1288-FF4C-A76A-9F7151A5740B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15B9C28-2932-3840-9308-EE975FE0C596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="3520" windowWidth="28040" windowHeight="17440" xr2:uid="{0051CCE9-BE7B-A642-8E81-0D102EBDF4B2}"/>
+    <workbookView xWindow="4700" yWindow="3520" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{0051CCE9-BE7B-A642-8E81-0D102EBDF4B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="244">
   <si>
     <t>UPN</t>
   </si>
@@ -176,9 +176,6 @@
     <t>USN</t>
   </si>
   <si>
-    <t>Sample</t>
-  </si>
-  <si>
     <t>Bone Marrow</t>
   </si>
   <si>
@@ -189,12 +186,6 @@
   </si>
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>Collection Date</t>
-  </si>
-  <si>
-    <t>Time point (Weeks)</t>
   </si>
   <si>
     <t>Experiment</t>
@@ -775,6 +766,12 @@
   <si>
     <t>BM_Blast</t>
   </si>
+  <si>
+    <t>CollectionDate</t>
+  </si>
+  <si>
+    <t>Time_point_weeks</t>
+  </si>
 </sst>
 </file>
 
@@ -1143,7 +1140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618E7542-0EA0-B445-AB16-63020CE884D9}">
   <dimension ref="A1:CBO3489"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -1157,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1172,10 +1169,10 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -1194,7 +1191,7 @@
         <v>240717</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>46</v>
@@ -1232,7 +1229,7 @@
         <v>634730</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C3">
         <v>46</v>
@@ -1271,7 +1268,7 @@
         <v>854045</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4">
         <v>16</v>
@@ -1310,7 +1307,7 @@
         <v>382039</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C5">
         <v>43</v>
@@ -1359,7 +1356,7 @@
         <v>817347</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>39</v>
@@ -1409,7 +1406,7 @@
         <v>221538</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C7">
         <v>9</v>
@@ -1448,7 +1445,7 @@
         <v>111358</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C8">
         <v>50</v>
@@ -1493,7 +1490,7 @@
         <v>306103</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C9">
         <v>43</v>
@@ -1533,7 +1530,7 @@
         <v>968732</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C10">
         <v>15</v>
@@ -1568,7 +1565,7 @@
         <v>829001</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C11">
         <v>69</v>
@@ -1607,7 +1604,7 @@
         <v>306557</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C12">
         <v>56</v>
@@ -1645,7 +1642,7 @@
         <v>613004</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C13">
         <v>74</v>
@@ -1683,7 +1680,7 @@
         <v>868825</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -1720,7 +1717,7 @@
         <v>479985</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C15">
         <v>49</v>
@@ -1768,7 +1765,7 @@
         <v>712172</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C16">
         <v>23</v>
@@ -1809,7 +1806,7 @@
         <v>918747</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C17">
         <v>51</v>
@@ -1848,7 +1845,7 @@
         <v>870856</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C18">
         <v>45</v>
@@ -1890,7 +1887,7 @@
         <v>493575</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C19">
         <v>56</v>
@@ -1926,7 +1923,7 @@
         <v>671201</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C20">
         <v>32</v>
@@ -1965,7 +1962,7 @@
         <v>529146</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C21">
         <v>27</v>
@@ -47559,8 +47556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F870C2DC-7513-8145-AD76-1E442710E53F}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -47578,16 +47575,16 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>242</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -47598,13 +47595,13 @@
         <v>829287</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2">
         <v>46</v>
@@ -47618,13 +47615,13 @@
         <v>804042</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3">
         <v>92</v>
@@ -47638,13 +47635,13 @@
         <v>804042</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -47658,13 +47655,13 @@
         <v>566041</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
         <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
       </c>
       <c r="F5">
         <v>43</v>
@@ -47678,13 +47675,13 @@
         <v>578556</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6">
         <v>78</v>
@@ -47698,13 +47695,13 @@
         <v>566041</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -47718,13 +47715,13 @@
         <v>932612</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8">
         <v>24</v>
@@ -47738,13 +47735,13 @@
         <v>243427</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9">
         <v>43</v>
@@ -47758,13 +47755,13 @@
         <v>377412</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -47778,13 +47775,13 @@
         <v>235686</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -47798,13 +47795,13 @@
         <v>268192</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12">
         <v>78</v>
@@ -47818,13 +47815,13 @@
         <v>243427</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
         <v>48</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
       </c>
       <c r="F13">
         <v>41</v>
@@ -47838,13 +47835,13 @@
         <v>893799</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14">
         <v>57</v>
@@ -47858,13 +47855,13 @@
         <v>932612</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15">
         <v>43</v>
@@ -47878,13 +47875,13 @@
         <v>310004</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16">
         <v>43</v>
@@ -47898,13 +47895,13 @@
         <v>309553</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -47918,13 +47915,13 @@
         <v>243427</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18">
         <v>78</v>
@@ -47938,13 +47935,13 @@
         <v>893799</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19">
         <v>78</v>
@@ -47958,13 +47955,13 @@
         <v>310004</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -47978,13 +47975,13 @@
         <v>829287</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21">
         <v>43</v>
@@ -47998,13 +47995,13 @@
         <v>235686</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22">
         <v>46</v>
@@ -48018,13 +48015,13 @@
         <v>309553</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23">
         <v>24</v>
@@ -48038,13 +48035,13 @@
         <v>240510</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24">
         <v>41</v>
@@ -48058,13 +48055,13 @@
         <v>377412</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F25">
         <v>46</v>
@@ -48078,13 +48075,13 @@
         <v>263963</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
         <v>48</v>
-      </c>
-      <c r="E26" t="s">
-        <v>49</v>
       </c>
       <c r="F26">
         <v>75</v>
@@ -48098,13 +48095,13 @@
         <v>240510</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27">
         <v>10</v>
@@ -48118,13 +48115,13 @@
         <v>932612</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28">
         <v>43</v>
@@ -48138,13 +48135,13 @@
         <v>377412</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" t="s">
         <v>48</v>
-      </c>
-      <c r="E29" t="s">
-        <v>49</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -48158,13 +48155,13 @@
         <v>240510</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F30">
         <v>41</v>
@@ -48178,13 +48175,13 @@
         <v>739036</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" t="s">
         <v>48</v>
-      </c>
-      <c r="E31" t="s">
-        <v>49</v>
       </c>
       <c r="F31">
         <v>75</v>
@@ -48198,13 +48195,13 @@
         <v>829287</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" t="s">
         <v>48</v>
-      </c>
-      <c r="E32" t="s">
-        <v>49</v>
       </c>
       <c r="F32">
         <v>7</v>
@@ -48218,13 +48215,13 @@
         <v>979026</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33">
         <v>88</v>
@@ -48238,13 +48235,13 @@
         <v>243427</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F34">
         <v>58</v>
@@ -48258,13 +48255,13 @@
         <v>235686</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -48278,13 +48275,13 @@
         <v>263963</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F36">
         <v>34</v>
@@ -48298,13 +48295,13 @@
         <v>310004</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F37">
         <v>10</v>
@@ -48318,13 +48315,13 @@
         <v>377412</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" t="s">
         <v>48</v>
-      </c>
-      <c r="E38" t="s">
-        <v>49</v>
       </c>
       <c r="F38">
         <v>34</v>
@@ -48338,13 +48335,13 @@
         <v>601984</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F39">
         <v>57</v>
@@ -48358,13 +48355,13 @@
         <v>829287</v>
       </c>
       <c r="C40" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" t="s">
         <v>48</v>
-      </c>
-      <c r="E40" t="s">
-        <v>49</v>
       </c>
       <c r="F40">
         <v>72</v>
@@ -48378,13 +48375,13 @@
         <v>263963</v>
       </c>
       <c r="C41" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F41">
         <v>88</v>
@@ -48398,13 +48395,13 @@
         <v>235686</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F42">
         <v>5</v>
@@ -48418,13 +48415,13 @@
         <v>240510</v>
       </c>
       <c r="C43" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -48438,13 +48435,13 @@
         <v>601984</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F44">
         <v>46</v>
@@ -48458,13 +48455,13 @@
         <v>932612</v>
       </c>
       <c r="C45" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F45">
         <v>34</v>
@@ -48478,13 +48475,13 @@
         <v>263963</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F46">
         <v>57</v>
@@ -48498,13 +48495,13 @@
         <v>829287</v>
       </c>
       <c r="C47" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F47">
         <v>88</v>
@@ -48518,13 +48515,13 @@
         <v>817970</v>
       </c>
       <c r="C48" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F48">
         <v>10</v>
@@ -48538,13 +48535,13 @@
         <v>310004</v>
       </c>
       <c r="C49" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F49">
         <v>4</v>
@@ -48558,13 +48555,13 @@
         <v>601984</v>
       </c>
       <c r="C50" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F50">
         <v>46</v>
@@ -48578,13 +48575,13 @@
         <v>804042</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F51">
         <v>41</v>
@@ -48618,13 +48615,13 @@
         <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -48635,13 +48632,13 @@
         <v>844582</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -48652,13 +48649,13 @@
         <v>176328</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -48669,13 +48666,13 @@
         <v>718901</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -48686,13 +48683,13 @@
         <v>962016</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -48703,13 +48700,13 @@
         <v>962016</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -48720,13 +48717,13 @@
         <v>962016</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -48737,13 +48734,13 @@
         <v>453214</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -48754,13 +48751,13 @@
         <v>174442</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -48771,13 +48768,13 @@
         <v>594013</v>
       </c>
       <c r="C10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -48788,13 +48785,13 @@
         <v>371658</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -48805,10 +48802,10 @@
         <v>714415</v>
       </c>
       <c r="C12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -48819,10 +48816,10 @@
         <v>977336</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -48833,10 +48830,10 @@
         <v>302142</v>
       </c>
       <c r="C14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -48847,10 +48844,10 @@
         <v>434204</v>
       </c>
       <c r="C15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -48861,10 +48858,10 @@
         <v>174587</v>
       </c>
       <c r="C16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -48875,10 +48872,10 @@
         <v>577840</v>
       </c>
       <c r="C17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -48889,10 +48886,10 @@
         <v>604344</v>
       </c>
       <c r="C18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -48903,10 +48900,10 @@
         <v>962016</v>
       </c>
       <c r="C19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -48917,10 +48914,10 @@
         <v>787041</v>
       </c>
       <c r="C20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -48931,10 +48928,10 @@
         <v>216130</v>
       </c>
       <c r="C21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -48945,10 +48942,10 @@
         <v>216130</v>
       </c>
       <c r="C22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -48959,10 +48956,10 @@
         <v>566819</v>
       </c>
       <c r="C23" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -48973,10 +48970,10 @@
         <v>962016</v>
       </c>
       <c r="C24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -48987,10 +48984,10 @@
         <v>371658</v>
       </c>
       <c r="C25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -49001,10 +48998,10 @@
         <v>302142</v>
       </c>
       <c r="C26" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -49015,10 +49012,10 @@
         <v>453214</v>
       </c>
       <c r="C27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -49029,10 +49026,10 @@
         <v>718901</v>
       </c>
       <c r="C28" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -49043,10 +49040,10 @@
         <v>174587</v>
       </c>
       <c r="C29" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -49057,10 +49054,10 @@
         <v>962016</v>
       </c>
       <c r="C30" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -49071,10 +49068,10 @@
         <v>216130</v>
       </c>
       <c r="C31" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -49085,10 +49082,10 @@
         <v>489635</v>
       </c>
       <c r="C32" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -49099,10 +49096,10 @@
         <v>174587</v>
       </c>
       <c r="C33" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -49113,10 +49110,10 @@
         <v>174587</v>
       </c>
       <c r="C34" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -49127,10 +49124,10 @@
         <v>175568</v>
       </c>
       <c r="C35" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -49141,10 +49138,10 @@
         <v>174587</v>
       </c>
       <c r="C36" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -49155,10 +49152,10 @@
         <v>796247</v>
       </c>
       <c r="C37" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D37" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -49169,10 +49166,10 @@
         <v>844582</v>
       </c>
       <c r="C38" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D38" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -49183,10 +49180,10 @@
         <v>499145</v>
       </c>
       <c r="C39" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -49197,10 +49194,10 @@
         <v>489635</v>
       </c>
       <c r="C40" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D40" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -49211,10 +49208,10 @@
         <v>174442</v>
       </c>
       <c r="C41" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -49225,10 +49222,10 @@
         <v>695529</v>
       </c>
       <c r="C42" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D42" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -49239,10 +49236,10 @@
         <v>151841</v>
       </c>
       <c r="C43" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D43" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -49253,10 +49250,10 @@
         <v>777596</v>
       </c>
       <c r="C44" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -49267,10 +49264,10 @@
         <v>594013</v>
       </c>
       <c r="C45" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D45" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -49281,10 +49278,10 @@
         <v>434204</v>
       </c>
       <c r="C46" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -49295,10 +49292,10 @@
         <v>434204</v>
       </c>
       <c r="C47" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D47" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -49309,10 +49306,10 @@
         <v>945267</v>
       </c>
       <c r="C48" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -49323,10 +49320,10 @@
         <v>962016</v>
       </c>
       <c r="C49" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D49" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -49337,10 +49334,10 @@
         <v>216130</v>
       </c>
       <c r="C50" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D50" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -49351,10 +49348,10 @@
         <v>695529</v>
       </c>
       <c r="C51" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D51" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -49378,19 +49375,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -49401,13 +49398,13 @@
         <v>239557</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -49418,13 +49415,13 @@
         <v>979375</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -49435,13 +49432,13 @@
         <v>998412</v>
       </c>
       <c r="C4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -49452,13 +49449,13 @@
         <v>670826</v>
       </c>
       <c r="C5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -49469,13 +49466,13 @@
         <v>881158</v>
       </c>
       <c r="C6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -49486,13 +49483,13 @@
         <v>122319</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -49503,13 +49500,13 @@
         <v>881158</v>
       </c>
       <c r="C8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -49520,13 +49517,13 @@
         <v>968896</v>
       </c>
       <c r="C9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -49537,13 +49534,13 @@
         <v>662302</v>
       </c>
       <c r="C10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D10" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -49554,13 +49551,13 @@
         <v>169337</v>
       </c>
       <c r="C11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -49571,13 +49568,13 @@
         <v>685124</v>
       </c>
       <c r="C12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -49588,13 +49585,13 @@
         <v>168615</v>
       </c>
       <c r="C13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D13" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E13" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -49605,13 +49602,13 @@
         <v>429267</v>
       </c>
       <c r="C14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E14" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -49622,13 +49619,13 @@
         <v>263793</v>
       </c>
       <c r="C15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D15" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E15" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -49639,13 +49636,13 @@
         <v>122319</v>
       </c>
       <c r="C16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D16" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E16" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -49656,13 +49653,13 @@
         <v>385345</v>
       </c>
       <c r="C17" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D17" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E17" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -49673,13 +49670,13 @@
         <v>505984</v>
       </c>
       <c r="C18" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D18" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E18" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -49690,13 +49687,13 @@
         <v>694246</v>
       </c>
       <c r="C19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E19" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -49707,13 +49704,13 @@
         <v>505984</v>
       </c>
       <c r="C20" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D20" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -49724,13 +49721,13 @@
         <v>383898</v>
       </c>
       <c r="C21" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D21" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E21" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -49741,13 +49738,13 @@
         <v>231681</v>
       </c>
       <c r="C22" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D22" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E22" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -49758,13 +49755,13 @@
         <v>234905</v>
       </c>
       <c r="C23" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D23" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E23" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -49775,13 +49772,13 @@
         <v>654942</v>
       </c>
       <c r="C24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D24" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E24" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -49792,13 +49789,13 @@
         <v>687967</v>
       </c>
       <c r="C25" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D25" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E25" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -49809,13 +49806,13 @@
         <v>670826</v>
       </c>
       <c r="C26" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E26" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -49826,13 +49823,13 @@
         <v>187126</v>
       </c>
       <c r="C27" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D27" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E27" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -49843,13 +49840,13 @@
         <v>654942</v>
       </c>
       <c r="C28" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D28" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E28" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -49860,13 +49857,13 @@
         <v>187126</v>
       </c>
       <c r="C29" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D29" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E29" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -49877,13 +49874,13 @@
         <v>122319</v>
       </c>
       <c r="C30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D30" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E30" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -49894,13 +49891,13 @@
         <v>882617</v>
       </c>
       <c r="C31" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D31" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E31" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -49911,13 +49908,13 @@
         <v>670826</v>
       </c>
       <c r="C32" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D32" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E32" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -49928,13 +49925,13 @@
         <v>122319</v>
       </c>
       <c r="C33" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D33" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E33" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -49945,13 +49942,13 @@
         <v>729521</v>
       </c>
       <c r="C34" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D34" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E34" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -49962,13 +49959,13 @@
         <v>860497</v>
       </c>
       <c r="C35" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D35" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E35" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -49979,13 +49976,13 @@
         <v>773340</v>
       </c>
       <c r="C36" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D36" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E36" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -49996,13 +49993,13 @@
         <v>685124</v>
       </c>
       <c r="C37" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E37" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -50013,13 +50010,13 @@
         <v>882617</v>
       </c>
       <c r="C38" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E38" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -50030,13 +50027,13 @@
         <v>320453</v>
       </c>
       <c r="C39" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D39" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E39" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -50047,13 +50044,13 @@
         <v>997864</v>
       </c>
       <c r="C40" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E40" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -50064,13 +50061,13 @@
         <v>505984</v>
       </c>
       <c r="C41" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D41" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E41" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -50081,13 +50078,13 @@
         <v>658419</v>
       </c>
       <c r="C42" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D42" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E42" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -50098,13 +50095,13 @@
         <v>899676</v>
       </c>
       <c r="C43" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D43" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E43" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -50115,13 +50112,13 @@
         <v>169337</v>
       </c>
       <c r="C44" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D44" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E44" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -50132,13 +50129,13 @@
         <v>881158</v>
       </c>
       <c r="C45" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D45" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E45" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -50149,13 +50146,13 @@
         <v>239557</v>
       </c>
       <c r="C46" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D46" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E46" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -50166,13 +50163,13 @@
         <v>907676</v>
       </c>
       <c r="C47" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D47" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E47" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -50183,13 +50180,13 @@
         <v>369051</v>
       </c>
       <c r="C48" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D48" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E48" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -50200,13 +50197,13 @@
         <v>658419</v>
       </c>
       <c r="C49" t="s">
+        <v>232</v>
+      </c>
+      <c r="D49" t="s">
+        <v>239</v>
+      </c>
+      <c r="E49" t="s">
         <v>235</v>
-      </c>
-      <c r="D49" t="s">
-        <v>242</v>
-      </c>
-      <c r="E49" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -50217,13 +50214,13 @@
         <v>239557</v>
       </c>
       <c r="C50" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D50" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E50" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/fake_db/fake_db.xlsx
+++ b/fake_db/fake_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohamedmahgoub/Documents/github/ngs-db/fake_db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15B9C28-2932-3840-9308-EE975FE0C596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AFA33F-5160-1545-8569-0DBC3B4918B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="3520" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{0051CCE9-BE7B-A642-8E81-0D102EBDF4B2}"/>
+    <workbookView xWindow="4700" yWindow="3500" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{0051CCE9-BE7B-A642-8E81-0D102EBDF4B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Experiment" sheetId="2" r:id="rId3"/>
     <sheet name="File" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1141,7 +1141,7 @@
   <dimension ref="A1:CBO3489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -47556,8 +47556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F870C2DC-7513-8145-AD76-1E442710E53F}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -47592,7 +47592,7 @@
         <v>572212</v>
       </c>
       <c r="B2">
-        <v>829287</v>
+        <v>240717</v>
       </c>
       <c r="C2" t="s">
         <v>85</v>
@@ -47612,7 +47612,7 @@
         <v>401643</v>
       </c>
       <c r="B3">
-        <v>804042</v>
+        <v>918747</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
@@ -47632,7 +47632,7 @@
         <v>321733</v>
       </c>
       <c r="B4">
-        <v>804042</v>
+        <v>634730</v>
       </c>
       <c r="C4" t="s">
         <v>87</v>
@@ -47652,7 +47652,7 @@
         <v>786637</v>
       </c>
       <c r="B5">
-        <v>566041</v>
+        <v>870856</v>
       </c>
       <c r="C5" t="s">
         <v>88</v>
@@ -47672,7 +47672,7 @@
         <v>627835</v>
       </c>
       <c r="B6">
-        <v>578556</v>
+        <v>479985</v>
       </c>
       <c r="C6" t="s">
         <v>89</v>
@@ -47692,7 +47692,7 @@
         <v>718904</v>
       </c>
       <c r="B7">
-        <v>566041</v>
+        <v>306557</v>
       </c>
       <c r="C7" t="s">
         <v>90</v>
@@ -47712,7 +47712,7 @@
         <v>851445</v>
       </c>
       <c r="B8">
-        <v>932612</v>
+        <v>240717</v>
       </c>
       <c r="C8" t="s">
         <v>91</v>
@@ -47732,7 +47732,7 @@
         <v>795341</v>
       </c>
       <c r="B9">
-        <v>243427</v>
+        <v>817347</v>
       </c>
       <c r="C9" t="s">
         <v>92</v>
@@ -47752,7 +47752,7 @@
         <v>968403</v>
       </c>
       <c r="B10">
-        <v>377412</v>
+        <v>918747</v>
       </c>
       <c r="C10" t="s">
         <v>93</v>
@@ -47772,7 +47772,7 @@
         <v>373269</v>
       </c>
       <c r="B11">
-        <v>235686</v>
+        <v>829001</v>
       </c>
       <c r="C11" t="s">
         <v>94</v>
@@ -47792,7 +47792,7 @@
         <v>448748</v>
       </c>
       <c r="B12">
-        <v>268192</v>
+        <v>613004</v>
       </c>
       <c r="C12" t="s">
         <v>95</v>
@@ -47812,7 +47812,7 @@
         <v>648323</v>
       </c>
       <c r="B13">
-        <v>243427</v>
+        <v>634730</v>
       </c>
       <c r="C13" t="s">
         <v>96</v>
@@ -47832,7 +47832,7 @@
         <v>383915</v>
       </c>
       <c r="B14">
-        <v>893799</v>
+        <v>479985</v>
       </c>
       <c r="C14" t="s">
         <v>97</v>
@@ -47852,7 +47852,7 @@
         <v>919760</v>
       </c>
       <c r="B15">
-        <v>932612</v>
+        <v>671201</v>
       </c>
       <c r="C15" t="s">
         <v>98</v>
@@ -47872,7 +47872,7 @@
         <v>284834</v>
       </c>
       <c r="B16">
-        <v>310004</v>
+        <v>493575</v>
       </c>
       <c r="C16" t="s">
         <v>99</v>
@@ -47892,7 +47892,7 @@
         <v>764589</v>
       </c>
       <c r="B17">
-        <v>309553</v>
+        <v>240717</v>
       </c>
       <c r="C17" t="s">
         <v>100</v>
@@ -47912,7 +47912,7 @@
         <v>542742</v>
       </c>
       <c r="B18">
-        <v>243427</v>
+        <v>306103</v>
       </c>
       <c r="C18" t="s">
         <v>101</v>
@@ -47932,7 +47932,7 @@
         <v>742568</v>
       </c>
       <c r="B19">
-        <v>893799</v>
+        <v>829001</v>
       </c>
       <c r="C19" t="s">
         <v>102</v>
@@ -47952,7 +47952,7 @@
         <v>509640</v>
       </c>
       <c r="B20">
-        <v>310004</v>
+        <v>493575</v>
       </c>
       <c r="C20" t="s">
         <v>103</v>
@@ -47972,7 +47972,7 @@
         <v>537089</v>
       </c>
       <c r="B21">
-        <v>829287</v>
+        <v>868825</v>
       </c>
       <c r="C21" t="s">
         <v>104</v>
@@ -47992,7 +47992,7 @@
         <v>565948</v>
       </c>
       <c r="B22">
-        <v>235686</v>
+        <v>479985</v>
       </c>
       <c r="C22" t="s">
         <v>105</v>
@@ -48012,7 +48012,7 @@
         <v>889986</v>
       </c>
       <c r="B23">
-        <v>309553</v>
+        <v>529146</v>
       </c>
       <c r="C23" t="s">
         <v>106</v>
@@ -48032,7 +48032,7 @@
         <v>367666</v>
       </c>
       <c r="B24">
-        <v>240510</v>
+        <v>306557</v>
       </c>
       <c r="C24" t="s">
         <v>107</v>
@@ -48052,7 +48052,7 @@
         <v>230815</v>
       </c>
       <c r="B25">
-        <v>377412</v>
+        <v>817347</v>
       </c>
       <c r="C25" t="s">
         <v>108</v>
@@ -48072,7 +48072,7 @@
         <v>127797</v>
       </c>
       <c r="B26">
-        <v>263963</v>
+        <v>671201</v>
       </c>
       <c r="C26" t="s">
         <v>109</v>
@@ -48092,7 +48092,7 @@
         <v>672151</v>
       </c>
       <c r="B27">
-        <v>240510</v>
+        <v>918747</v>
       </c>
       <c r="C27" t="s">
         <v>110</v>
@@ -48112,7 +48112,7 @@
         <v>398109</v>
       </c>
       <c r="B28">
-        <v>932612</v>
+        <v>221538</v>
       </c>
       <c r="C28" t="s">
         <v>111</v>
@@ -48132,7 +48132,7 @@
         <v>883133</v>
       </c>
       <c r="B29">
-        <v>377412</v>
+        <v>306557</v>
       </c>
       <c r="C29" t="s">
         <v>112</v>
@@ -48152,7 +48152,7 @@
         <v>906799</v>
       </c>
       <c r="B30">
-        <v>240510</v>
+        <v>479985</v>
       </c>
       <c r="C30" t="s">
         <v>113</v>
@@ -48172,7 +48172,7 @@
         <v>141030</v>
       </c>
       <c r="B31">
-        <v>739036</v>
+        <v>479985</v>
       </c>
       <c r="C31" t="s">
         <v>114</v>
@@ -48192,7 +48192,7 @@
         <v>893253</v>
       </c>
       <c r="B32">
-        <v>829287</v>
+        <v>479985</v>
       </c>
       <c r="C32" t="s">
         <v>115</v>
@@ -48212,7 +48212,7 @@
         <v>519203</v>
       </c>
       <c r="B33">
-        <v>979026</v>
+        <v>240717</v>
       </c>
       <c r="C33" t="s">
         <v>116</v>
@@ -48232,7 +48232,7 @@
         <v>786767</v>
       </c>
       <c r="B34">
-        <v>243427</v>
+        <v>240717</v>
       </c>
       <c r="C34" t="s">
         <v>117</v>
@@ -48252,7 +48252,7 @@
         <v>393064</v>
       </c>
       <c r="B35">
-        <v>235686</v>
+        <v>529146</v>
       </c>
       <c r="C35" t="s">
         <v>118</v>
@@ -48272,7 +48272,7 @@
         <v>673104</v>
       </c>
       <c r="B36">
-        <v>263963</v>
+        <v>968732</v>
       </c>
       <c r="C36" t="s">
         <v>119</v>
@@ -48292,7 +48292,7 @@
         <v>427431</v>
       </c>
       <c r="B37">
-        <v>310004</v>
+        <v>479985</v>
       </c>
       <c r="C37" t="s">
         <v>120</v>
@@ -48312,7 +48312,7 @@
         <v>257986</v>
       </c>
       <c r="B38">
-        <v>377412</v>
+        <v>671201</v>
       </c>
       <c r="C38" t="s">
         <v>121</v>
@@ -48332,7 +48332,7 @@
         <v>207672</v>
       </c>
       <c r="B39">
-        <v>601984</v>
+        <v>870856</v>
       </c>
       <c r="C39" t="s">
         <v>122</v>
@@ -48352,7 +48352,7 @@
         <v>470805</v>
       </c>
       <c r="B40">
-        <v>829287</v>
+        <v>868825</v>
       </c>
       <c r="C40" t="s">
         <v>123</v>
@@ -48372,7 +48372,7 @@
         <v>893056</v>
       </c>
       <c r="B41">
-        <v>263963</v>
+        <v>918747</v>
       </c>
       <c r="C41" t="s">
         <v>124</v>
@@ -48392,7 +48392,7 @@
         <v>303581</v>
       </c>
       <c r="B42">
-        <v>235686</v>
+        <v>671201</v>
       </c>
       <c r="C42" t="s">
         <v>125</v>
@@ -48412,7 +48412,7 @@
         <v>790958</v>
       </c>
       <c r="B43">
-        <v>240510</v>
+        <v>829001</v>
       </c>
       <c r="C43" t="s">
         <v>126</v>
@@ -48432,7 +48432,7 @@
         <v>703118</v>
       </c>
       <c r="B44">
-        <v>601984</v>
+        <v>382039</v>
       </c>
       <c r="C44" t="s">
         <v>127</v>
@@ -48452,7 +48452,7 @@
         <v>975664</v>
       </c>
       <c r="B45">
-        <v>932612</v>
+        <v>968732</v>
       </c>
       <c r="C45" t="s">
         <v>128</v>
@@ -48472,7 +48472,7 @@
         <v>797402</v>
       </c>
       <c r="B46">
-        <v>263963</v>
+        <v>493575</v>
       </c>
       <c r="C46" t="s">
         <v>129</v>
@@ -48492,7 +48492,7 @@
         <v>989377</v>
       </c>
       <c r="B47">
-        <v>829287</v>
+        <v>493575</v>
       </c>
       <c r="C47" t="s">
         <v>130</v>
@@ -48512,7 +48512,7 @@
         <v>364600</v>
       </c>
       <c r="B48">
-        <v>817970</v>
+        <v>968732</v>
       </c>
       <c r="C48" t="s">
         <v>131</v>
@@ -48532,7 +48532,7 @@
         <v>290915</v>
       </c>
       <c r="B49">
-        <v>310004</v>
+        <v>613004</v>
       </c>
       <c r="C49" t="s">
         <v>132</v>
@@ -48552,7 +48552,7 @@
         <v>939532</v>
       </c>
       <c r="B50">
-        <v>601984</v>
+        <v>306557</v>
       </c>
       <c r="C50" t="s">
         <v>133</v>
@@ -48572,7 +48572,7 @@
         <v>486121</v>
       </c>
       <c r="B51">
-        <v>804042</v>
+        <v>868825</v>
       </c>
       <c r="C51" t="s">
         <v>134</v>
@@ -48598,7 +48598,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -48629,7 +48629,7 @@
         <v>685124</v>
       </c>
       <c r="B2">
-        <v>844582</v>
+        <v>230815</v>
       </c>
       <c r="C2" t="s">
         <v>135</v>
@@ -48646,7 +48646,7 @@
         <v>662302</v>
       </c>
       <c r="B3">
-        <v>176328</v>
+        <v>393064</v>
       </c>
       <c r="C3" t="s">
         <v>136</v>
@@ -48663,7 +48663,7 @@
         <v>239557</v>
       </c>
       <c r="B4">
-        <v>718901</v>
+        <v>398109</v>
       </c>
       <c r="C4" t="s">
         <v>137</v>
@@ -48680,7 +48680,7 @@
         <v>436656</v>
       </c>
       <c r="B5">
-        <v>962016</v>
+        <v>673104</v>
       </c>
       <c r="C5" t="s">
         <v>138</v>
@@ -48697,7 +48697,7 @@
         <v>468673</v>
       </c>
       <c r="B6">
-        <v>962016</v>
+        <v>257986</v>
       </c>
       <c r="C6" t="s">
         <v>139</v>
@@ -48714,7 +48714,7 @@
         <v>112383</v>
       </c>
       <c r="B7">
-        <v>962016</v>
+        <v>851445</v>
       </c>
       <c r="C7" t="s">
         <v>140</v>
@@ -48731,7 +48731,7 @@
         <v>109145</v>
       </c>
       <c r="B8">
-        <v>453214</v>
+        <v>393064</v>
       </c>
       <c r="C8" t="s">
         <v>141</v>
@@ -48748,7 +48748,7 @@
         <v>303740</v>
       </c>
       <c r="B9">
-        <v>174442</v>
+        <v>486121</v>
       </c>
       <c r="C9" t="s">
         <v>142</v>
@@ -48765,7 +48765,7 @@
         <v>729521</v>
       </c>
       <c r="B10">
-        <v>594013</v>
+        <v>851445</v>
       </c>
       <c r="C10" t="s">
         <v>143</v>
@@ -48782,7 +48782,7 @@
         <v>578154</v>
       </c>
       <c r="B11">
-        <v>371658</v>
+        <v>230815</v>
       </c>
       <c r="C11" t="s">
         <v>144</v>
@@ -48799,7 +48799,7 @@
         <v>116276</v>
       </c>
       <c r="B12">
-        <v>714415</v>
+        <v>893056</v>
       </c>
       <c r="C12" t="s">
         <v>145</v>
@@ -48813,7 +48813,7 @@
         <v>429267</v>
       </c>
       <c r="B13">
-        <v>977336</v>
+        <v>893253</v>
       </c>
       <c r="C13" t="s">
         <v>146</v>
@@ -48827,7 +48827,7 @@
         <v>330278</v>
       </c>
       <c r="B14">
-        <v>302142</v>
+        <v>393064</v>
       </c>
       <c r="C14" t="s">
         <v>147</v>
@@ -48841,7 +48841,7 @@
         <v>139992</v>
       </c>
       <c r="B15">
-        <v>434204</v>
+        <v>367666</v>
       </c>
       <c r="C15" t="s">
         <v>148</v>
@@ -48855,7 +48855,7 @@
         <v>860497</v>
       </c>
       <c r="B16">
-        <v>174587</v>
+        <v>290915</v>
       </c>
       <c r="C16" t="s">
         <v>149</v>
@@ -48869,7 +48869,7 @@
         <v>658419</v>
       </c>
       <c r="B17">
-        <v>577840</v>
+        <v>786637</v>
       </c>
       <c r="C17" t="s">
         <v>150</v>
@@ -48883,7 +48883,7 @@
         <v>881158</v>
       </c>
       <c r="B18">
-        <v>604344</v>
+        <v>257986</v>
       </c>
       <c r="C18" t="s">
         <v>151</v>
@@ -48897,7 +48897,7 @@
         <v>449332</v>
       </c>
       <c r="B19">
-        <v>962016</v>
+        <v>367666</v>
       </c>
       <c r="C19" t="s">
         <v>152</v>
@@ -48911,7 +48911,7 @@
         <v>369051</v>
       </c>
       <c r="B20">
-        <v>787041</v>
+        <v>401643</v>
       </c>
       <c r="C20" t="s">
         <v>153</v>
@@ -48925,7 +48925,7 @@
         <v>998412</v>
       </c>
       <c r="B21">
-        <v>216130</v>
+        <v>786637</v>
       </c>
       <c r="C21" t="s">
         <v>154</v>
@@ -48939,7 +48939,7 @@
         <v>654942</v>
       </c>
       <c r="B22">
-        <v>216130</v>
+        <v>975664</v>
       </c>
       <c r="C22" t="s">
         <v>155</v>
@@ -48953,7 +48953,7 @@
         <v>359938</v>
       </c>
       <c r="B23">
-        <v>566819</v>
+        <v>290915</v>
       </c>
       <c r="C23" t="s">
         <v>156</v>
@@ -48967,7 +48967,7 @@
         <v>773340</v>
       </c>
       <c r="B24">
-        <v>962016</v>
+        <v>470805</v>
       </c>
       <c r="C24" t="s">
         <v>157</v>
@@ -48981,7 +48981,7 @@
         <v>666693</v>
       </c>
       <c r="B25">
-        <v>371658</v>
+        <v>303581</v>
       </c>
       <c r="C25" t="s">
         <v>158</v>
@@ -48995,7 +48995,7 @@
         <v>383898</v>
       </c>
       <c r="B26">
-        <v>302142</v>
+        <v>284834</v>
       </c>
       <c r="C26" t="s">
         <v>159</v>
@@ -49009,7 +49009,7 @@
         <v>662177</v>
       </c>
       <c r="B27">
-        <v>453214</v>
+        <v>851445</v>
       </c>
       <c r="C27" t="s">
         <v>160</v>
@@ -49023,7 +49023,7 @@
         <v>122319</v>
       </c>
       <c r="B28">
-        <v>718901</v>
+        <v>542742</v>
       </c>
       <c r="C28" t="s">
         <v>161</v>
@@ -49037,7 +49037,7 @@
         <v>263793</v>
       </c>
       <c r="B29">
-        <v>174587</v>
+        <v>565948</v>
       </c>
       <c r="C29" t="s">
         <v>162</v>
@@ -49051,7 +49051,7 @@
         <v>234905</v>
       </c>
       <c r="B30">
-        <v>962016</v>
+        <v>303581</v>
       </c>
       <c r="C30" t="s">
         <v>163</v>
@@ -49065,7 +49065,7 @@
         <v>694246</v>
       </c>
       <c r="B31">
-        <v>216130</v>
+        <v>893056</v>
       </c>
       <c r="C31" t="s">
         <v>164</v>
@@ -49079,7 +49079,7 @@
         <v>320453</v>
       </c>
       <c r="B32">
-        <v>489635</v>
+        <v>321733</v>
       </c>
       <c r="C32" t="s">
         <v>165</v>
@@ -49093,7 +49093,7 @@
         <v>463744</v>
       </c>
       <c r="B33">
-        <v>174587</v>
+        <v>572212</v>
       </c>
       <c r="C33" t="s">
         <v>166</v>
@@ -49107,7 +49107,7 @@
         <v>551382</v>
       </c>
       <c r="B34">
-        <v>174587</v>
+        <v>797402</v>
       </c>
       <c r="C34" t="s">
         <v>167</v>
@@ -49121,7 +49121,7 @@
         <v>367825</v>
       </c>
       <c r="B35">
-        <v>175568</v>
+        <v>893253</v>
       </c>
       <c r="C35" t="s">
         <v>168</v>
@@ -49135,7 +49135,7 @@
         <v>187126</v>
       </c>
       <c r="B36">
-        <v>174587</v>
+        <v>797402</v>
       </c>
       <c r="C36" t="s">
         <v>169</v>
@@ -49149,7 +49149,7 @@
         <v>871190</v>
       </c>
       <c r="B37">
-        <v>796247</v>
+        <v>939532</v>
       </c>
       <c r="C37" t="s">
         <v>170</v>
@@ -49163,7 +49163,7 @@
         <v>168615</v>
       </c>
       <c r="B38">
-        <v>844582</v>
+        <v>795341</v>
       </c>
       <c r="C38" t="s">
         <v>171</v>
@@ -49177,7 +49177,7 @@
         <v>687967</v>
       </c>
       <c r="B39">
-        <v>499145</v>
+        <v>975664</v>
       </c>
       <c r="C39" t="s">
         <v>172</v>
@@ -49191,7 +49191,7 @@
         <v>907676</v>
       </c>
       <c r="B40">
-        <v>489635</v>
+        <v>572212</v>
       </c>
       <c r="C40" t="s">
         <v>173</v>
@@ -49205,7 +49205,7 @@
         <v>728196</v>
       </c>
       <c r="B41">
-        <v>174442</v>
+        <v>742568</v>
       </c>
       <c r="C41" t="s">
         <v>174</v>
@@ -49219,7 +49219,7 @@
         <v>968896</v>
       </c>
       <c r="B42">
-        <v>695529</v>
+        <v>284834</v>
       </c>
       <c r="C42" t="s">
         <v>175</v>
@@ -49233,7 +49233,7 @@
         <v>231681</v>
       </c>
       <c r="B43">
-        <v>151841</v>
+        <v>797402</v>
       </c>
       <c r="C43" t="s">
         <v>176</v>
@@ -49247,7 +49247,7 @@
         <v>997864</v>
       </c>
       <c r="B44">
-        <v>777596</v>
+        <v>257986</v>
       </c>
       <c r="C44" t="s">
         <v>177</v>
@@ -49261,7 +49261,7 @@
         <v>505984</v>
       </c>
       <c r="B45">
-        <v>594013</v>
+        <v>303581</v>
       </c>
       <c r="C45" t="s">
         <v>178</v>
@@ -49275,7 +49275,7 @@
         <v>169337</v>
       </c>
       <c r="B46">
-        <v>434204</v>
+        <v>718904</v>
       </c>
       <c r="C46" t="s">
         <v>179</v>
@@ -49289,7 +49289,7 @@
         <v>899676</v>
       </c>
       <c r="B47">
-        <v>434204</v>
+        <v>509640</v>
       </c>
       <c r="C47" t="s">
         <v>180</v>
@@ -49303,7 +49303,7 @@
         <v>979375</v>
       </c>
       <c r="B48">
-        <v>945267</v>
+        <v>627835</v>
       </c>
       <c r="C48" t="s">
         <v>181</v>
@@ -49317,7 +49317,7 @@
         <v>882617</v>
       </c>
       <c r="B49">
-        <v>962016</v>
+        <v>565948</v>
       </c>
       <c r="C49" t="s">
         <v>182</v>
@@ -49331,7 +49331,7 @@
         <v>670826</v>
       </c>
       <c r="B50">
-        <v>216130</v>
+        <v>401643</v>
       </c>
       <c r="C50" t="s">
         <v>183</v>
@@ -49345,7 +49345,7 @@
         <v>385345</v>
       </c>
       <c r="B51">
-        <v>695529</v>
+        <v>321733</v>
       </c>
       <c r="C51" t="s">
         <v>184</v>
